--- a/PRN221_GroupProject/UserTemplate.xlsx
+++ b/PRN221_GroupProject/UserTemplate.xlsx
@@ -41,10 +41,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>test</t>
+    <t>test3</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
+    <t>test3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -72,22 +72,22 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -539,10 +539,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -677,7 +677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,7 +1216,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1255,7 +1255,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="test@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="test3@gmail.com" tooltip="mailto:test3@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
